--- a/CASUAL/LA ONT/FERRER, HANNAH ERICKA.xlsx
+++ b/CASUAL/LA ONT/FERRER, HANNAH ERICKA.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
   <si>
     <t>PERIOD</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>UT(1-6-43)</t>
+  </si>
+  <si>
+    <t>UT(1-3-5)</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1163,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1203,7 +1206,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1267,7 +1270,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1327,7 +1330,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1393,7 +1396,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1456,7 +1459,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1554,7 +1557,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1613,7 +1616,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1678,7 +1681,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1721,7 +1724,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1796,7 +1799,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1982,7 +1985,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2048,7 +2051,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2106,7 +2109,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2172,7 +2175,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2228,7 +2231,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2303,7 +2306,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2346,7 +2349,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2412,7 +2415,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2468,7 +2471,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2946,7 +2949,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A58" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
+      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3105,7 +3108,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>61.41</v>
+        <v>60.024999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4274,11 +4277,15 @@
       <c r="A67" s="40">
         <v>44712</v>
       </c>
-      <c r="B67" s="20"/>
+      <c r="B67" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C67" s="13">
         <v>1.25</v>
       </c>
-      <c r="D67" s="39"/>
+      <c r="D67" s="39">
+        <v>1.385</v>
+      </c>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
       <c r="G67" s="13">
@@ -7820,17 +7827,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -7933,14 +7940,14 @@
         <v>1</v>
       </c>
       <c r="E3" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F3" s="11">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>1.8399999999999999</v>
+        <v>1.385</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/CASUAL/LA ONT/FERRER, HANNAH ERICKA.xlsx
+++ b/CASUAL/LA ONT/FERRER, HANNAH ERICKA.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
   <si>
     <t>PERIOD</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>UT(1-3-5)</t>
+  </si>
+  <si>
+    <t>UT(2-0-0)</t>
   </si>
 </sst>
 </file>
@@ -2567,7 +2570,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -2944,12 +2947,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K136"/>
+  <dimension ref="A2:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A58" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
+      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3108,7 +3111,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>60.024999999999999</v>
+        <v>57.524999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4369,11 +4372,15 @@
       <c r="A71" s="40">
         <v>44834</v>
       </c>
-      <c r="B71" s="20"/>
+      <c r="B71" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C71" s="13">
         <v>1.25</v>
       </c>
-      <c r="D71" s="39"/>
+      <c r="D71" s="39">
+        <v>0.5</v>
+      </c>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
       <c r="G71" s="13">
@@ -4450,12 +4457,14 @@
       <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="B75" s="20"/>
+      <c r="A75" s="40"/>
+      <c r="B75" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C75" s="13"/>
-      <c r="D75" s="39"/>
+      <c r="D75" s="39">
+        <v>2</v>
+      </c>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
       <c r="G75" s="13" t="str">
@@ -4468,19 +4477,17 @@
       <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="40">
-        <v>44957</v>
+      <c r="A76" s="48" t="s">
+        <v>57</v>
       </c>
       <c r="B76" s="20"/>
-      <c r="C76" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C76" s="13"/>
       <c r="D76" s="39"/>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G76" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
@@ -4489,7 +4496,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>44985</v>
+        <v>44957</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13">
@@ -4509,7 +4516,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>45016</v>
+        <v>44985</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13">
@@ -4529,7 +4536,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>45046</v>
+        <v>45016</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13">
@@ -4549,7 +4556,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -4569,7 +4576,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>45107</v>
+        <v>45077</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13">
@@ -4589,7 +4596,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>45138</v>
+        <v>45107</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13">
@@ -4609,7 +4616,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>45169</v>
+        <v>45138</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13">
@@ -4629,7 +4636,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45199</v>
+        <v>45169</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
@@ -4649,7 +4656,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45230</v>
+        <v>45199</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13">
@@ -4669,7 +4676,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>45260</v>
+        <v>45230</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13">
@@ -4689,16 +4696,18 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>45291</v>
+        <v>45260</v>
       </c>
       <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
@@ -4706,8 +4715,8 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="48" t="s">
-        <v>59</v>
+      <c r="A88" s="40">
+        <v>45291</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4724,8 +4733,8 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40">
-        <v>45322</v>
+      <c r="A89" s="48" t="s">
+        <v>59</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4743,7 +4752,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4761,7 +4770,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4779,7 +4788,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4797,7 +4806,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4815,7 +4824,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4833,7 +4842,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4851,7 +4860,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4869,7 +4878,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4887,7 +4896,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4905,7 +4914,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4923,7 +4932,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4941,7 +4950,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4959,7 +4968,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4977,7 +4986,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>45747</v>
+        <v>45716</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4995,7 +5004,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5013,7 +5022,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5031,7 +5040,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45838</v>
+        <v>45808</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5049,7 +5058,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45869</v>
+        <v>45838</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5067,7 +5076,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5085,7 +5094,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5103,7 +5112,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>45961</v>
+        <v>45930</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5121,7 +5130,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>45991</v>
+        <v>45961</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5139,7 +5148,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>46022</v>
+        <v>45991</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5157,7 +5166,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>46053</v>
+        <v>46022</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5174,7 +5183,9 @@
       <c r="K113" s="20"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="40"/>
+      <c r="A114" s="40">
+        <v>46053</v>
+      </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
@@ -5526,20 +5537,36 @@
       <c r="K135" s="20"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="41"/>
-      <c r="B136" s="15"/>
-      <c r="C136" s="42"/>
-      <c r="D136" s="43"/>
+      <c r="A136" s="40"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="39"/>
       <c r="E136" s="9"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H136" s="43"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="39"/>
       <c r="I136" s="9"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="15"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="20"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="41"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="42"/>
+      <c r="D137" s="43"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="43"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7936,18 +7963,14 @@
       <c r="B3" s="11">
         <v>107.373</v>
       </c>
-      <c r="D3" s="11">
-        <v>1</v>
-      </c>
+      <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>3</v>
-      </c>
-      <c r="F3" s="11">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F3" s="11"/>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>1.385</v>
+        <v>0.5</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
